--- a/data/SA_convergence_TRY_30034001_None_75_sample_no_16/Y_trial130034001_16.xlsx
+++ b/data/SA_convergence_TRY_30034001_None_75_sample_no_16/Y_trial130034001_16.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +49,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5657 +365,5651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B705"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:2">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2184431.062129525</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2160292.140771465</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2198799.839033193</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2204944.852299423</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2162190.195988428</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2191360.959983109</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2169537.513454561</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2138092.772868126</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2014886.88893072</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2189092.137887846</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2191127.96889469</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2111032.34175594</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2184736.13852353</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2452722.403601476</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2092673.827408669</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2251519.988453076</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2204665.039727438</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2185560.265073238</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2218126.025947943</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2260779.526712658</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>1986226.336159015</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2298495.974165541</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2225601.149286579</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2191360.655656137</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2173376.789574506</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>2231693.12831041</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>2200810.658075909</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>2229056.733925031</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>2253983.800605325</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>2377335.784724469</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>2198117.339605805</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>2196957.496924712</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>2271710.364684331</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>2202798.479701739</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>1932716.623375062</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>2298549.481377124</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>2145890.092469469</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>2185320.808240598</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>2202714.318979448</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>2157852.765616093</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>2129274.429029035</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>2374481.810978093</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>2052881.049928444</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2203695.103661822</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>1095725.916190296</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>1099436.425094932</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>1051007.358427943</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>1053784.198943526</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>1086908.645175764</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>1099686.949176977</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>1099902.344814384</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>1059808.777944633</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>1172030.589126501</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>1099165.218695923</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>1099870.178342473</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>1059431.271185723</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>1096181.778442542</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>1309728.257737105</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>1451107.265261053</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>1066725.484377593</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>1108812.209748745</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>1095501.272844722</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>1063834.612293277</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>1140247.116268735</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>1005664.857530444</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>933138.6670390766</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>1162510.82361772</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>1267058.03417621</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>1240444.943443866</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>1179272.535914109</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>1157392.751758863</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>1163269.096040336</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>1226814.10521739</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>1088626.60151041</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>1162073.720809949</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>1161490.699902073</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>1194382.212561092</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>1165662.252516827</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>996431.9272950834</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>882483.082572144</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>1196620.956467573</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>1151673.871471239</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>1166620.433597054</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>1211380.676443423</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>1120874.982711806</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>1310860.965698062</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>1406331.108777229</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>1166418.031964245</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>1462932.609424217</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>1476735.452592699</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>1525978.508354696</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>1561216.727315715</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>1442086.615168216</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>1438941.2008982</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>1465877.039699197</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>1559071.000138589</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>1539822.535148471</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>1466107.748468561</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>1450810.640678601</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>1618590.290168142</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>1463203.764806984</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>900095.5013610853</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>1399553.09401785</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>1437588.258757899</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>1450836.38091671</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>1462566.628428356</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>1499242.562171375</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>1786428.099159075</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>1517534.111567657</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>1563662.782713307</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>1577324.49431875</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>1524376.728363885</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>1552796.844848963</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>1605580.683417323</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>1619873.812419357</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>1592478.110639285</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>1504775.870015952</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>1505993.465596918</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>1591400.185059398</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>1611538.851138879</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>1404065.485073077</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>1594143.369455548</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>2435858.827336797</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>1687718.012665896</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>1628502.347563231</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>1611966.842239601</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>1595163.567466938</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>1560746.933451395</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>1305911.463812632</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>1546871.351012092</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>1499877.859219603</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>1594685.167956599</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>1437362.029397503</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>1430105.437322599</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>1408174.28883628</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>1391123.262177352</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>1420869.41112856</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>1421741.435638443</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>1439774.019456939</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>1379192.046094788</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>1529953.729739075</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>1443330.998388499</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>1443222.191880212</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>1378111.635188021</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>1436932.425140502</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>1676807.093276238</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>1352807.027195826</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>1494393.255539377</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>1419505.965904327</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>1437251.930329481</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>1418982.221163501</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>1275322.544682236</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>1482529.076568219</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>1591083.127241194</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>1494257.066561912</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>1508273.478574193</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>1528848.875571446</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>1502815.446837106</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>1505142.465666123</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>1483390.442214478</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>1525178.71568313</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>1404447.445795395</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>1481903.677654206</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>1481443.181788679</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>1546532.636860235</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>1487718.507647427</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>1297064.801817717</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>1558547.095355461</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>1434707.465762241</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>1504926.280876089</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>1487435.769854408</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>1505415.157281717</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>1676174.849895571</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>1451607.290794627</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>1347496.835906548</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>1487213.055013862</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>1321065.345754904</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>1314780.539731186</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>1355474.816468318</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>1270340.97114529</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>1340363.782164502</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>1279408.182680803</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>1314327.135833525</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>1367944.635231697</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>1294285.911755376</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>1324933.700719325</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>1312322.001410591</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>1395897.795303598</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>1319818.968134996</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>741600.4080621282</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>1601496.30219459</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>1330731.944493203</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>1321065.345754904</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>1320647.096263326</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>1324152.384374338</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>1265114.859923191</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>1182112.227272489</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>1227181.671426878</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>866808.5655709421</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>783219.924194979</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>875824.5469571566</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>854706.4699423697</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>884730.9609677779</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>868965.2560662972</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>806721.5582636693</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>884307.3698009895</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>858385.5151187138</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>869383.7245925571</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>809782.8470923102</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>863423.6642628016</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>1409084.060045923</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>576842.793173474</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>853822.5059019171</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>861867.7619339109</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>862029.8913423832</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>857318.9708737885</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>899984.3958700743</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>996705.5089371898</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>957512.1626774619</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>861867.7619339109</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>1530002.165069609</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>1547408.674987172</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>1518551.756118318</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>1577167.697383912</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>1541759.06783009</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>1558585.895823497</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>1539788.377790776</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>1457618.472364643</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>1498826.775365321</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>1498977.697322628</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>1542460.190598725</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>1431443.710796032</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>1530143.360942393</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>1775026.054969124</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>1445413.080042605</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>1540760.221642221</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>1530002.165069609</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>1529669.888800469</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>1532224.767660692</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>1474590.049696192</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>1723272.372337668</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>1382358.026560861</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>1634623.420873173</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>1659646.571225588</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>1589200.576129356</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>1637886.226061892</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>1611545.271116178</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>1640765.551090257</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>1705485.05862287</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>1680203.943635215</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>1681300.952354514</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>1641516.693484557</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>1764229.252589719</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>1650876.302794947</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>1395096.747527754</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1727641.792041409</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>1640085.778905979</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>1650848.667551479</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>1651235.782644768</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>1648932.876029241</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>1712884.225738828</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>1405236.648268425</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>1749523.687016645</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>1650848.667551479</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>1634250.420549761</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>1651627.641234795</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>1662802.389333302</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>1584694.482133838</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>1653813.252377175</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>1661541.322368962</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>1632334.408102748</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1624237.478847124</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1473961.581524239</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>1617074.578798213</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>1634250.420549761</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>1634250.420549761</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1634454.205130385</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1875238.120857936</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>1546193.552022124</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1600880.293626151</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1634250.420549761</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>1633889.600891893</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1642440.183686537</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1358300.225320547</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1451506.026399681</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>1880340.418516614</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1381081.221888364</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1377613.276118686</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1462915.269105285</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1372861.07298358</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1384316.034913403</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1397096.133797068</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1405389.959722886</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1536950.417443491</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1408640.332095345</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1395949.247560398</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1395949.247560398</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1395815.161008935</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1206776.062918544</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1476363.383826649</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1423720.305445326</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1395949.247560398</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1396132.644355566</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
         <v>303</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1391741.430541649</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
         <v>304</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1679548.160535222</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
         <v>305</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1528548.432549103</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
         <v>306</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1149293.865282641</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
         <v>307</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1395949.247560398</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
         <v>308</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1088033.704371243</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
         <v>309</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1081303.871646866</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
         <v>310</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1025210.738501321</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
         <v>311</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1103897.79363758</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
         <v>312</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1091234.795663873</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
         <v>313</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1078697.656783944</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
         <v>314</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1086896.98322282</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="1" t="n">
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
         <v>315</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1077543.633427761</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="1" t="n">
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
         <v>316</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1168440.414486676</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="1" t="n">
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
         <v>317</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1106406.533985085</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="1" t="n">
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
         <v>318</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1088033.704371243</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="1" t="n">
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
         <v>319</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1088033.704371243</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="1" t="n">
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
         <v>320</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1087890.463445572</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="1" t="n">
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
         <v>321</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1285133.915483998</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="1" t="n">
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
         <v>322</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1009426.301564625</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="1" t="n">
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
         <v>323</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1058054.269779804</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
         <v>324</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1088033.704371243</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
         <v>325</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1088701.089582795</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
         <v>326</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1090276.499620483</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="1" t="n">
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
         <v>327</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1215481.252064878</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="1" t="n">
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
         <v>328</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1277335.283766761</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="1" t="n">
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
         <v>329</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>957386.3191416069</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="1" t="n">
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
         <v>330</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1502538.461997806</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="1" t="n">
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
         <v>331</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1556623.835019543</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="1" t="n">
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
         <v>332</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1448749.077508451</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="1" t="n">
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
         <v>333</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1484171.948127345</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
         <v>334</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1505706.478080457</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
         <v>335</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1496267.985742955</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
         <v>336</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1503590.786466683</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
         <v>337</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1402031.132800578</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
         <v>338</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1472267.581088363</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
         <v>339</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1494732.486183408</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
         <v>340</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1494732.486183408</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
         <v>341</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1494337.548917966</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
         <v>342</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1241019.167419196</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
         <v>343</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1575085.416990274</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
         <v>344</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>1529110.33333189</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
         <v>345</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>1494732.486183408</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
         <v>346</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>1494269.163496003</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
         <v>347</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>1491714.770754465</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
         <v>348</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1338004.449861612</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
         <v>349</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>1247555.011983393</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
         <v>350</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>1604767.376111453</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
         <v>351</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>1494732.486183408</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
         <v>352</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>1111002.240205632</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
         <v>353</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>1107418.091796588</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
         <v>354</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>1142195.15152047</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
         <v>355</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>1099360.842258746</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
         <v>356</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>1121839.222932241</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
         <v>357</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>1138411.258536867</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
         <v>358</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>1112255.415405405</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
         <v>359</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>1118419.912102054</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
         <v>360</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>1188190.301831781</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
         <v>361</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>1107030.676178575</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
         <v>362</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>1104757.385512615</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
         <v>363</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>1122039.082994385</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
         <v>364</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>1112288.005707655</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
         <v>365</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>901519.9172630172</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
         <v>366</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>1310300.435143703</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
         <v>367</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>1111002.240205632</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
         <v>368</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>1084760.435222957</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
         <v>369</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>1110601.329771471</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
         <v>370</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>1105401.523998289</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
         <v>371</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>1203158.274088756</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
         <v>372</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>914499.8110215043</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
         <v>373</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>1183199.847376996</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
         <v>374</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>1203180.916947966</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
         <v>375</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>1143305.118998044</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
         <v>376</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>1208119.900481295</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
         <v>377</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>1191761.551227549</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
         <v>378</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>1172177.344027295</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
         <v>379</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>1198931.970303114</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
         <v>380</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>1189737.469923199</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
         <v>381</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>1120404.849038111</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
         <v>382</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>1203647.609149497</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
         <v>383</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>1206806.364310678</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
         <v>384</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>1190689.296240064</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
         <v>385</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>1199213.38067068</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
         <v>386</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>1431634.410914476</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
         <v>387</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>971396.0143410524</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
         <v>388</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>1199636.647176054</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
         <v>389</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>1229403.349441213</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
         <v>390</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>1200275.1107661</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
         <v>391</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>1204018.945646662</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
         <v>392</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>1107750.352674756</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
         <v>393</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>1413768.358083609</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
         <v>394</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>1095088.108782196</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
         <v>395</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>1199636.647176054</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
         <v>396</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>2178414.109892078</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
         <v>397</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>2172856.418420495</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
         <v>398</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>2113646.797146394</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
         <v>399</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>2345196.041017147</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
         <v>400</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>2204480.96458135</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
         <v>401</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>2146109.897995259</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
         <v>402</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>2179177.570590591</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
         <v>403</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>2190362.917520812</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
         <v>404</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>2001885.708705931</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
         <v>405</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>2171895.878205661</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
         <v>406</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>2168109.755784483</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
         <v>407</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>2217847.666494158</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
         <v>408</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>2178728.98001496</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
         <v>409</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>1953639.117156265</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
         <v>410</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>1960922.431635723</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
         <v>411</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>2178414.109892078</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
         <v>412</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>2220151.042103984</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
         <v>413</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>2178698.173463281</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
         <v>414</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>2176068.644279165</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
         <v>415</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>2333398.891027568</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
         <v>416</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>2308444.048399406</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
         <v>417</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>1797674.174082438</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
         <v>418</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>1667955.904987907</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
         <v>419</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>1707706.713372718</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
         <v>420</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>1506919.25842801</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
         <v>421</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>1636287.684528077</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
         <v>422</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>1686687.852394151</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
         <v>423</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>1662125.942553443</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
         <v>424</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>1647579.563630264</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
         <v>425</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>1843105.815187242</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
         <v>426</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>1669337.987485672</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
         <v>427</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>1671985.944701324</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
+    <row r="430" spans="1:2">
+      <c r="A430" s="1">
         <v>428</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>1618971.934118535</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
+    <row r="431" spans="1:2">
+      <c r="A431" s="1">
         <v>429</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>1662183.209425753</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
+    <row r="432" spans="1:2">
+      <c r="A432" s="1">
         <v>430</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>1946158.228017862</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
+    <row r="433" spans="1:2">
+      <c r="A433" s="1">
         <v>431</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>1864816.461859381</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
+    <row r="434" spans="1:2">
+      <c r="A434" s="1">
         <v>432</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>1662772.408837317</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
+    <row r="435" spans="1:2">
+      <c r="A435" s="1">
         <v>433</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>1626247.965913227</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
+    <row r="436" spans="1:2">
+      <c r="A436" s="1">
         <v>434</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>1662704.847797515</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
+    <row r="437" spans="1:2">
+      <c r="A437" s="1">
         <v>435</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>1666021.804752963</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
+    <row r="438" spans="1:2">
+      <c r="A438" s="1">
         <v>436</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>1552330.761310735</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
+    <row r="439" spans="1:2">
+      <c r="A439" s="1">
         <v>437</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>1488500.62685703</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
+    <row r="440" spans="1:2">
+      <c r="A440" s="1">
         <v>438</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>1957050.721312069</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
+    <row r="441" spans="1:2">
+      <c r="A441" s="1">
         <v>439</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>1662772.408837317</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
+    <row r="442" spans="1:2">
+      <c r="A442" s="1">
         <v>440</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>1349428.578607339</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
+    <row r="443" spans="1:2">
+      <c r="A443" s="1">
         <v>441</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>1357042.906938066</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
+    <row r="444" spans="1:2">
+      <c r="A444" s="1">
         <v>442</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>1377880.345400986</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
+    <row r="445" spans="1:2">
+      <c r="A445" s="1">
         <v>443</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>1305314.769784013</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
+    <row r="446" spans="1:2">
+      <c r="A446" s="1">
         <v>444</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>1359578.625865853</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
+    <row r="447" spans="1:2">
+      <c r="A447" s="1">
         <v>445</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>1300401.593400932</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
+    <row r="448" spans="1:2">
+      <c r="A448" s="1">
         <v>446</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>1358763.597425042</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
+    <row r="449" spans="1:2">
+      <c r="A449" s="1">
         <v>447</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>1429588.346920348</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
+    <row r="450" spans="1:2">
+      <c r="A450" s="1">
         <v>448</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>1316412.97058434</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
+    <row r="451" spans="1:2">
+      <c r="A451" s="1">
         <v>449</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>1343128.95903044</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
+    <row r="452" spans="1:2">
+      <c r="A452" s="1">
         <v>450</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>1339602.812929108</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
+    <row r="453" spans="1:2">
+      <c r="A453" s="1">
         <v>451</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>1277186.415025049</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
+    <row r="454" spans="1:2">
+      <c r="A454" s="1">
         <v>452</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>1349690.880169073</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
+    <row r="455" spans="1:2">
+      <c r="A455" s="1">
         <v>453</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>2199328.740606267</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
+    <row r="456" spans="1:2">
+      <c r="A456" s="1">
         <v>454</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>1378841.041029705</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
+    <row r="457" spans="1:2">
+      <c r="A457" s="1">
         <v>455</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>1349428.578607339</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
+    <row r="458" spans="1:2">
+      <c r="A458" s="1">
         <v>456</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>1308412.984007781</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
+    <row r="459" spans="1:2">
+      <c r="A459" s="1">
         <v>457</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>1349646.058183406</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
+    <row r="460" spans="1:2">
+      <c r="A460" s="1">
         <v>458</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>1344906.946981304</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
+    <row r="461" spans="1:2">
+      <c r="A461" s="1">
         <v>459</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>1080540.699576936</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
+    <row r="462" spans="1:2">
+      <c r="A462" s="1">
         <v>460</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>1065712.254677475</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
+    <row r="463" spans="1:2">
+      <c r="A463" s="1">
         <v>461</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>1424351.839530023</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
+    <row r="464" spans="1:2">
+      <c r="A464" s="1">
         <v>462</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>1465814.972460468</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
+    <row r="465" spans="1:2">
+      <c r="A465" s="1">
         <v>463</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>1446588.197309914</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
+    <row r="466" spans="1:2">
+      <c r="A466" s="1">
         <v>464</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>1574222.738340172</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
+    <row r="467" spans="1:2">
+      <c r="A467" s="1">
         <v>465</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>1451450.126486482</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
+    <row r="468" spans="1:2">
+      <c r="A468" s="1">
         <v>466</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>1505381.413630684</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
+    <row r="469" spans="1:2">
+      <c r="A469" s="1">
         <v>467</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>1464138.271700105</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
+    <row r="470" spans="1:2">
+      <c r="A470" s="1">
         <v>468</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>1384247.733695702</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
+    <row r="471" spans="1:2">
+      <c r="A471" s="1">
         <v>469</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>1497609.748959863</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
+    <row r="472" spans="1:2">
+      <c r="A472" s="1">
         <v>470</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>1476101.02347523</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
+    <row r="473" spans="1:2">
+      <c r="A473" s="1">
         <v>471</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>1479364.724438072</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
+    <row r="474" spans="1:2">
+      <c r="A474" s="1">
         <v>472</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>1537054.861356444</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
+    <row r="475" spans="1:2">
+      <c r="A475" s="1">
         <v>473</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>1470452.240888222</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
+    <row r="476" spans="1:2">
+      <c r="A476" s="1">
         <v>474</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>881673.0352233779</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
+    <row r="477" spans="1:2">
+      <c r="A477" s="1">
         <v>475</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>1445232.22373879</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
+    <row r="478" spans="1:2">
+      <c r="A478" s="1">
         <v>476</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>1472267.545459389</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
+    <row r="479" spans="1:2">
+      <c r="A479" s="1">
         <v>477</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>1505008.675819317</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
+    <row r="480" spans="1:2">
+      <c r="A480" s="1">
         <v>478</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>1472136.067328342</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
+    <row r="481" spans="1:2">
+      <c r="A481" s="1">
         <v>479</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>1482861.603849053</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
+    <row r="482" spans="1:2">
+      <c r="A482" s="1">
         <v>480</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>1838634.955607725</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
+    <row r="483" spans="1:2">
+      <c r="A483" s="1">
         <v>481</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>1673966.278639181</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
+    <row r="484" spans="1:2">
+      <c r="A484" s="1">
         <v>482</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>1395958.416670637</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
+    <row r="485" spans="1:2">
+      <c r="A485" s="1">
         <v>483</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>1472267.545459389</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
+    <row r="486" spans="1:2">
+      <c r="A486" s="1">
         <v>484</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>1545677.963713483</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
+    <row r="487" spans="1:2">
+      <c r="A487" s="1">
         <v>485</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>1553244.931458255</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
+    <row r="488" spans="1:2">
+      <c r="A488" s="1">
         <v>486</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>1499616.109761192</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
+    <row r="489" spans="1:2">
+      <c r="A489" s="1">
         <v>487</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>1580356.203007581</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
+    <row r="490" spans="1:2">
+      <c r="A490" s="1">
         <v>488</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>1560702.953071847</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
+    <row r="491" spans="1:2">
+      <c r="A491" s="1">
         <v>489</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>1556152.10128614</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
+    <row r="492" spans="1:2">
+      <c r="A492" s="1">
         <v>490</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>1535563.65697754</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
+    <row r="493" spans="1:2">
+      <c r="A493" s="1">
         <v>491</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>1484297.80231103</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
+    <row r="494" spans="1:2">
+      <c r="A494" s="1">
         <v>492</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>1517499.973858037</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
+    <row r="495" spans="1:2">
+      <c r="A495" s="1">
         <v>493</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>1542963.779486335</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
+    <row r="496" spans="1:2">
+      <c r="A496" s="1">
         <v>494</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>1558334.022026028</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
+    <row r="497" spans="1:2">
+      <c r="A497" s="1">
         <v>495</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>1666435.813687045</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
+    <row r="498" spans="1:2">
+      <c r="A498" s="1">
         <v>496</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>1544656.020756419</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
+    <row r="499" spans="1:2">
+      <c r="A499" s="1">
         <v>497</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>1348797.96029274</v>
       </c>
     </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
+    <row r="500" spans="1:2">
+      <c r="A500" s="1">
         <v>498</v>
       </c>
-      <c r="B500" t="n">
+      <c r="B500">
         <v>1574419.15990963</v>
       </c>
     </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
+    <row r="501" spans="1:2">
+      <c r="A501" s="1">
         <v>499</v>
       </c>
-      <c r="B501" t="n">
+      <c r="B501">
         <v>1545677.963713483</v>
       </c>
     </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
+    <row r="502" spans="1:2">
+      <c r="A502" s="1">
         <v>500</v>
       </c>
-      <c r="B502" t="n">
+      <c r="B502">
         <v>1576062.080833158</v>
       </c>
     </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
+    <row r="503" spans="1:2">
+      <c r="A503" s="1">
         <v>501</v>
       </c>
-      <c r="B503" t="n">
+      <c r="B503">
         <v>1546433.097343077</v>
       </c>
     </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
+    <row r="504" spans="1:2">
+      <c r="A504" s="1">
         <v>502</v>
       </c>
-      <c r="B504" t="n">
+      <c r="B504">
         <v>1541608.644436201</v>
       </c>
     </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
+    <row r="505" spans="1:2">
+      <c r="A505" s="1">
         <v>503</v>
       </c>
-      <c r="B505" t="n">
+      <c r="B505">
         <v>1664069.329059212</v>
       </c>
     </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
+    <row r="506" spans="1:2">
+      <c r="A506" s="1">
         <v>504</v>
       </c>
-      <c r="B506" t="n">
+      <c r="B506">
         <v>1662469.230798238</v>
       </c>
     </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
+    <row r="507" spans="1:2">
+      <c r="A507" s="1">
         <v>505</v>
       </c>
-      <c r="B507" t="n">
+      <c r="B507">
         <v>1632774.93628476</v>
       </c>
     </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
+    <row r="508" spans="1:2">
+      <c r="A508" s="1">
         <v>506</v>
       </c>
-      <c r="B508" t="n">
+      <c r="B508">
         <v>1766037.160975663</v>
       </c>
     </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
+    <row r="509" spans="1:2">
+      <c r="A509" s="1">
         <v>507</v>
       </c>
-      <c r="B509" t="n">
+      <c r="B509">
         <v>1829598.23515523</v>
       </c>
     </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
+    <row r="510" spans="1:2">
+      <c r="A510" s="1">
         <v>508</v>
       </c>
-      <c r="B510" t="n">
+      <c r="B510">
         <v>1744961.22440644</v>
       </c>
     </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
+    <row r="511" spans="1:2">
+      <c r="A511" s="1">
         <v>509</v>
       </c>
-      <c r="B511" t="n">
+      <c r="B511">
         <v>1761175.60504842</v>
       </c>
     </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
+    <row r="512" spans="1:2">
+      <c r="A512" s="1">
         <v>510</v>
       </c>
-      <c r="B512" t="n">
+      <c r="B512">
         <v>1763762.737610605</v>
       </c>
     </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
+    <row r="513" spans="1:2">
+      <c r="A513" s="1">
         <v>511</v>
       </c>
-      <c r="B513" t="n">
+      <c r="B513">
         <v>1786043.314266854</v>
       </c>
     </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
+    <row r="514" spans="1:2">
+      <c r="A514" s="1">
         <v>512</v>
       </c>
-      <c r="B514" t="n">
+      <c r="B514">
         <v>1818965.633025253</v>
       </c>
     </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
+    <row r="515" spans="1:2">
+      <c r="A515" s="1">
         <v>513</v>
       </c>
-      <c r="B515" t="n">
+      <c r="B515">
         <v>1807991.108612305</v>
       </c>
     </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
+    <row r="516" spans="1:2">
+      <c r="A516" s="1">
         <v>514</v>
       </c>
-      <c r="B516" t="n">
+      <c r="B516">
         <v>1779369.524148022</v>
       </c>
     </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
+    <row r="517" spans="1:2">
+      <c r="A517" s="1">
         <v>515</v>
       </c>
-      <c r="B517" t="n">
+      <c r="B517">
         <v>1761678.690677511</v>
       </c>
     </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
+    <row r="518" spans="1:2">
+      <c r="A518" s="1">
         <v>516</v>
       </c>
-      <c r="B518" t="n">
+      <c r="B518">
         <v>1629741.288981386</v>
       </c>
     </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
+    <row r="519" spans="1:2">
+      <c r="A519" s="1">
         <v>517</v>
       </c>
-      <c r="B519" t="n">
+      <c r="B519">
         <v>1775544.991285763</v>
       </c>
     </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
+    <row r="520" spans="1:2">
+      <c r="A520" s="1">
         <v>518</v>
       </c>
-      <c r="B520" t="n">
+      <c r="B520">
         <v>2020186.906279512</v>
       </c>
     </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
+    <row r="521" spans="1:2">
+      <c r="A521" s="1">
         <v>519</v>
       </c>
-      <c r="B521" t="n">
+      <c r="B521">
         <v>1745735.194888569</v>
       </c>
     </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
+    <row r="522" spans="1:2">
+      <c r="A522" s="1">
         <v>520</v>
       </c>
-      <c r="B522" t="n">
+      <c r="B522">
         <v>1774756.250836948</v>
       </c>
     </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
+    <row r="523" spans="1:2">
+      <c r="A523" s="1">
         <v>521</v>
       </c>
-      <c r="B523" t="n">
+      <c r="B523">
         <v>1742884.243146259</v>
       </c>
     </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
+    <row r="524" spans="1:2">
+      <c r="A524" s="1">
         <v>522</v>
       </c>
-      <c r="B524" t="n">
+      <c r="B524">
         <v>1774467.988834538</v>
       </c>
     </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
+    <row r="525" spans="1:2">
+      <c r="A525" s="1">
         <v>523</v>
       </c>
-      <c r="B525" t="n">
+      <c r="B525">
         <v>1777767.316113863</v>
       </c>
     </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
+    <row r="526" spans="1:2">
+      <c r="A526" s="1">
         <v>524</v>
       </c>
-      <c r="B526" t="n">
+      <c r="B526">
         <v>1648489.987753281</v>
       </c>
     </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
+    <row r="527" spans="1:2">
+      <c r="A527" s="1">
         <v>525</v>
       </c>
-      <c r="B527" t="n">
+      <c r="B527">
         <v>1651755.895341021</v>
       </c>
     </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
+    <row r="528" spans="1:2">
+      <c r="A528" s="1">
         <v>526</v>
       </c>
-      <c r="B528" t="n">
+      <c r="B528">
         <v>1689211.676881866</v>
       </c>
     </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
+    <row r="529" spans="1:2">
+      <c r="A529" s="1">
         <v>527</v>
       </c>
-      <c r="B529" t="n">
+      <c r="B529">
         <v>1774756.250836948</v>
       </c>
     </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
+    <row r="530" spans="1:2">
+      <c r="A530" s="1">
         <v>528</v>
       </c>
-      <c r="B530" t="n">
+      <c r="B530">
         <v>1565691.185856492</v>
       </c>
     </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
+    <row r="531" spans="1:2">
+      <c r="A531" s="1">
         <v>529</v>
       </c>
-      <c r="B531" t="n">
+      <c r="B531">
         <v>1560783.529741993</v>
       </c>
     </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
+    <row r="532" spans="1:2">
+      <c r="A532" s="1">
         <v>530</v>
       </c>
-      <c r="B532" t="n">
+      <c r="B532">
         <v>1635909.376602853</v>
       </c>
     </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
+    <row r="533" spans="1:2">
+      <c r="A533" s="1">
         <v>531</v>
       </c>
-      <c r="B533" t="n">
+      <c r="B533">
         <v>1591088.140443509</v>
       </c>
     </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
+    <row r="534" spans="1:2">
+      <c r="A534" s="1">
         <v>532</v>
       </c>
-      <c r="B534" t="n">
+      <c r="B534">
         <v>1553654.758605383</v>
       </c>
     </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
+    <row r="535" spans="1:2">
+      <c r="A535" s="1">
         <v>533</v>
       </c>
-      <c r="B535" t="n">
+      <c r="B535">
         <v>1559904.964843283</v>
       </c>
     </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
+    <row r="536" spans="1:2">
+      <c r="A536" s="1">
         <v>534</v>
       </c>
-      <c r="B536" t="n">
+      <c r="B536">
         <v>1573776.298923687</v>
       </c>
     </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
+    <row r="537" spans="1:2">
+      <c r="A537" s="1">
         <v>535</v>
       </c>
-      <c r="B537" t="n">
+      <c r="B537">
         <v>1622701.034995746</v>
       </c>
     </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
+    <row r="538" spans="1:2">
+      <c r="A538" s="1">
         <v>536</v>
       </c>
-      <c r="B538" t="n">
+      <c r="B538">
         <v>1533308.114310679</v>
       </c>
     </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
+    <row r="539" spans="1:2">
+      <c r="A539" s="1">
         <v>537</v>
       </c>
-      <c r="B539" t="n">
+      <c r="B539">
         <v>1560402.963684725</v>
       </c>
     </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
+    <row r="540" spans="1:2">
+      <c r="A540" s="1">
         <v>538</v>
       </c>
-      <c r="B540" t="n">
+      <c r="B540">
         <v>1555971.65505178</v>
       </c>
     </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
+    <row r="541" spans="1:2">
+      <c r="A541" s="1">
         <v>539</v>
       </c>
-      <c r="B541" t="n">
+      <c r="B541">
         <v>1487872.111502044</v>
       </c>
     </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
+    <row r="542" spans="1:2">
+      <c r="A542" s="1">
         <v>540</v>
       </c>
-      <c r="B542" t="n">
+      <c r="B542">
         <v>1564419.93171994</v>
       </c>
     </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
+    <row r="543" spans="1:2">
+      <c r="A543" s="1">
         <v>541</v>
       </c>
-      <c r="B543" t="n">
+      <c r="B543">
         <v>2247546.981504693</v>
       </c>
     </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
+    <row r="544" spans="1:2">
+      <c r="A544" s="1">
         <v>542</v>
       </c>
-      <c r="B544" t="n">
+      <c r="B544">
         <v>1256589.128622503</v>
       </c>
     </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
+    <row r="545" spans="1:2">
+      <c r="A545" s="1">
         <v>543</v>
       </c>
-      <c r="B545" t="n">
+      <c r="B545">
         <v>1494055.528916468</v>
       </c>
     </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
+    <row r="546" spans="1:2">
+      <c r="A546" s="1">
         <v>544</v>
       </c>
-      <c r="B546" t="n">
+      <c r="B546">
         <v>1624546.888682391</v>
       </c>
     </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
+    <row r="547" spans="1:2">
+      <c r="A547" s="1">
         <v>545</v>
       </c>
-      <c r="B547" t="n">
+      <c r="B547">
         <v>1565714.02258026</v>
       </c>
     </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
+    <row r="548" spans="1:2">
+      <c r="A548" s="1">
         <v>546</v>
       </c>
-      <c r="B548" t="n">
+      <c r="B548">
         <v>1596556.80269766</v>
       </c>
     </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
+    <row r="549" spans="1:2">
+      <c r="A549" s="1">
         <v>547</v>
       </c>
-      <c r="B549" t="n">
+      <c r="B549">
         <v>1458125.4220643</v>
       </c>
     </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
+    <row r="550" spans="1:2">
+      <c r="A550" s="1">
         <v>548</v>
       </c>
-      <c r="B550" t="n">
+      <c r="B550">
         <v>1754284.122039207</v>
       </c>
     </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
+    <row r="551" spans="1:2">
+      <c r="A551" s="1">
         <v>549</v>
       </c>
-      <c r="B551" t="n">
+      <c r="B551">
         <v>1469553.153805617</v>
       </c>
     </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
+    <row r="552" spans="1:2">
+      <c r="A552" s="1">
         <v>550</v>
       </c>
-      <c r="B552" t="n">
+      <c r="B552">
         <v>1904455.518086215</v>
       </c>
     </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
+    <row r="553" spans="1:2">
+      <c r="A553" s="1">
         <v>551</v>
       </c>
-      <c r="B553" t="n">
+      <c r="B553">
         <v>1864362.144093824</v>
       </c>
     </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
+    <row r="554" spans="1:2">
+      <c r="A554" s="1">
         <v>552</v>
       </c>
-      <c r="B554" t="n">
+      <c r="B554">
         <v>1834263.954734597</v>
       </c>
     </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
+    <row r="555" spans="1:2">
+      <c r="A555" s="1">
         <v>553</v>
       </c>
-      <c r="B555" t="n">
+      <c r="B555">
         <v>1930102.666924421</v>
       </c>
     </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
+    <row r="556" spans="1:2">
+      <c r="A556" s="1">
         <v>554</v>
       </c>
-      <c r="B556" t="n">
+      <c r="B556">
         <v>1912901.385155569</v>
       </c>
     </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
+    <row r="557" spans="1:2">
+      <c r="A557" s="1">
         <v>555</v>
       </c>
-      <c r="B557" t="n">
+      <c r="B557">
         <v>1895329.247230753</v>
       </c>
     </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
+    <row r="558" spans="1:2">
+      <c r="A558" s="1">
         <v>556</v>
       </c>
-      <c r="B558" t="n">
+      <c r="B558">
         <v>1855252.594092721</v>
       </c>
     </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
+    <row r="559" spans="1:2">
+      <c r="A559" s="1">
         <v>557</v>
       </c>
-      <c r="B559" t="n">
+      <c r="B559">
         <v>1930960.694343586</v>
       </c>
     </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
+    <row r="560" spans="1:2">
+      <c r="A560" s="1">
         <v>558</v>
       </c>
-      <c r="B560" t="n">
+      <c r="B560">
         <v>1905389.173581898</v>
       </c>
     </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
+    <row r="561" spans="1:2">
+      <c r="A561" s="1">
         <v>559</v>
       </c>
-      <c r="B561" t="n">
+      <c r="B561">
         <v>1908216.390421025</v>
       </c>
     </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
+    <row r="562" spans="1:2">
+      <c r="A562" s="1">
         <v>560</v>
       </c>
-      <c r="B562" t="n">
+      <c r="B562">
         <v>1991905.656478766</v>
       </c>
     </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
+    <row r="563" spans="1:2">
+      <c r="A563" s="1">
         <v>561</v>
       </c>
-      <c r="B563" t="n">
+      <c r="B563">
         <v>1903835.609916921</v>
       </c>
     </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
+    <row r="564" spans="1:2">
+      <c r="A564" s="1">
         <v>562</v>
       </c>
-      <c r="B564" t="n">
+      <c r="B564">
         <v>1244273.244151474</v>
       </c>
     </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
+    <row r="565" spans="1:2">
+      <c r="A565" s="1">
         <v>563</v>
       </c>
-      <c r="B565" t="n">
+      <c r="B565">
         <v>2230304.849331499</v>
       </c>
     </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
+    <row r="566" spans="1:2">
+      <c r="A566" s="1">
         <v>564</v>
       </c>
-      <c r="B566" t="n">
+      <c r="B566">
         <v>1972289.225532283</v>
       </c>
     </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
+    <row r="567" spans="1:2">
+      <c r="A567" s="1">
         <v>565</v>
       </c>
-      <c r="B567" t="n">
+      <c r="B567">
         <v>1846701.613479139</v>
       </c>
     </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
+    <row r="568" spans="1:2">
+      <c r="A568" s="1">
         <v>566</v>
       </c>
-      <c r="B568" t="n">
+      <c r="B568">
         <v>1899454.063026128</v>
       </c>
     </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
+    <row r="569" spans="1:2">
+      <c r="A569" s="1">
         <v>567</v>
       </c>
-      <c r="B569" t="n">
+      <c r="B569">
         <v>1860865.362103939</v>
       </c>
     </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
+    <row r="570" spans="1:2">
+      <c r="A570" s="1">
         <v>568</v>
       </c>
-      <c r="B570" t="n">
+      <c r="B570">
         <v>2039864.048867038</v>
       </c>
     </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
+    <row r="571" spans="1:2">
+      <c r="A571" s="1">
         <v>569</v>
       </c>
-      <c r="B571" t="n">
+      <c r="B571">
         <v>1724219.611332729</v>
       </c>
     </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
+    <row r="572" spans="1:2">
+      <c r="A572" s="1">
         <v>570</v>
       </c>
-      <c r="B572" t="n">
+      <c r="B572">
         <v>1964845.796465584</v>
       </c>
     </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
+    <row r="573" spans="1:2">
+      <c r="A573" s="1">
         <v>571</v>
       </c>
-      <c r="B573" t="n">
+      <c r="B573">
         <v>1899721.767661958</v>
       </c>
     </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
+    <row r="574" spans="1:2">
+      <c r="A574" s="1">
         <v>572</v>
       </c>
-      <c r="B574" t="n">
+      <c r="B574">
         <v>1610264.320754432</v>
       </c>
     </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
+    <row r="575" spans="1:2">
+      <c r="A575" s="1">
         <v>573</v>
       </c>
-      <c r="B575" t="n">
+      <c r="B575">
         <v>1606478.766472417</v>
       </c>
     </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
+    <row r="576" spans="1:2">
+      <c r="A576" s="1">
         <v>574</v>
       </c>
-      <c r="B576" t="n">
+      <c r="B576">
         <v>1570872.123672256</v>
       </c>
     </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
+    <row r="577" spans="1:2">
+      <c r="A577" s="1">
         <v>575</v>
       </c>
-      <c r="B577" t="n">
+      <c r="B577">
         <v>1523522.637644582</v>
       </c>
     </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
+    <row r="578" spans="1:2">
+      <c r="A578" s="1">
         <v>576</v>
       </c>
-      <c r="B578" t="n">
+      <c r="B578">
         <v>1592878.837066326</v>
       </c>
     </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
+    <row r="579" spans="1:2">
+      <c r="A579" s="1">
         <v>577</v>
       </c>
-      <c r="B579" t="n">
+      <c r="B579">
         <v>1602986.210986595</v>
       </c>
     </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
+    <row r="580" spans="1:2">
+      <c r="A580" s="1">
         <v>578</v>
       </c>
-      <c r="B580" t="n">
+      <c r="B580">
         <v>1615482.118443291</v>
       </c>
     </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
+    <row r="581" spans="1:2">
+      <c r="A581" s="1">
         <v>579</v>
       </c>
-      <c r="B581" t="n">
+      <c r="B581">
         <v>1517848.547905201</v>
       </c>
     </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
+    <row r="582" spans="1:2">
+      <c r="A582" s="1">
         <v>580</v>
       </c>
-      <c r="B582" t="n">
+      <c r="B582">
         <v>1582200.603222936</v>
       </c>
     </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
+    <row r="583" spans="1:2">
+      <c r="A583" s="1">
         <v>581</v>
       </c>
-      <c r="B583" t="n">
+      <c r="B583">
         <v>1640405.465367895</v>
       </c>
     </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
+    <row r="584" spans="1:2">
+      <c r="A584" s="1">
         <v>582</v>
       </c>
-      <c r="B584" t="n">
+      <c r="B584">
         <v>1621371.495676417</v>
       </c>
     </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
+    <row r="585" spans="1:2">
+      <c r="A585" s="1">
         <v>583</v>
       </c>
-      <c r="B585" t="n">
+      <c r="B585">
         <v>1752794.335792626</v>
       </c>
     </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
+    <row r="586" spans="1:2">
+      <c r="A586" s="1">
         <v>584</v>
       </c>
-      <c r="B586" t="n">
+      <c r="B586">
         <v>1610780.183297843</v>
       </c>
     </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
+    <row r="587" spans="1:2">
+      <c r="A587" s="1">
         <v>585</v>
       </c>
-      <c r="B587" t="n">
+      <c r="B587">
         <v>1380151.458698486</v>
       </c>
     </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
+    <row r="588" spans="1:2">
+      <c r="A588" s="1">
         <v>586</v>
       </c>
-      <c r="B588" t="n">
+      <c r="B588">
         <v>1745221.947537049</v>
       </c>
     </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
+    <row r="589" spans="1:2">
+      <c r="A589" s="1">
         <v>587</v>
       </c>
-      <c r="B589" t="n">
+      <c r="B589">
         <v>1628730.262463396</v>
       </c>
     </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
+    <row r="590" spans="1:2">
+      <c r="A590" s="1">
         <v>588</v>
       </c>
-      <c r="B590" t="n">
+      <c r="B590">
         <v>1596775.76439075</v>
       </c>
     </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
+    <row r="591" spans="1:2">
+      <c r="A591" s="1">
         <v>589</v>
       </c>
-      <c r="B591" t="n">
+      <c r="B591">
         <v>1610602.287855765</v>
       </c>
     </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
+    <row r="592" spans="1:2">
+      <c r="A592" s="1">
         <v>590</v>
       </c>
-      <c r="B592" t="n">
+      <c r="B592">
         <v>1578387.654957301</v>
       </c>
     </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
+    <row r="593" spans="1:2">
+      <c r="A593" s="1">
         <v>591</v>
       </c>
-      <c r="B593" t="n">
+      <c r="B593">
         <v>1482014.294546135</v>
       </c>
     </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
+    <row r="594" spans="1:2">
+      <c r="A594" s="1">
         <v>592</v>
       </c>
-      <c r="B594" t="n">
+      <c r="B594">
         <v>1706537.821492379</v>
       </c>
     </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
+    <row r="595" spans="1:2">
+      <c r="A595" s="1">
         <v>593</v>
       </c>
-      <c r="B595" t="n">
+      <c r="B595">
         <v>1517708.939419353</v>
       </c>
     </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
+    <row r="596" spans="1:2">
+      <c r="A596" s="1">
         <v>594</v>
       </c>
-      <c r="B596" t="n">
+      <c r="B596">
         <v>1292905.184655021</v>
       </c>
     </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
+    <row r="597" spans="1:2">
+      <c r="A597" s="1">
         <v>595</v>
       </c>
-      <c r="B597" t="n">
+      <c r="B597">
         <v>1337683.175460099</v>
       </c>
     </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
+    <row r="598" spans="1:2">
+      <c r="A598" s="1">
         <v>596</v>
       </c>
-      <c r="B598" t="n">
+      <c r="B598">
         <v>1360846.772474239</v>
       </c>
     </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
+    <row r="599" spans="1:2">
+      <c r="A599" s="1">
         <v>597</v>
       </c>
-      <c r="B599" t="n">
+      <c r="B599">
         <v>1304214.579912431</v>
       </c>
     </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
+    <row r="600" spans="1:2">
+      <c r="A600" s="1">
         <v>598</v>
       </c>
-      <c r="B600" t="n">
+      <c r="B600">
         <v>1289326.0903681</v>
       </c>
     </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
+    <row r="601" spans="1:2">
+      <c r="A601" s="1">
         <v>599</v>
       </c>
-      <c r="B601" t="n">
+      <c r="B601">
         <v>1282934.560768906</v>
       </c>
     </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
+    <row r="602" spans="1:2">
+      <c r="A602" s="1">
         <v>600</v>
       </c>
-      <c r="B602" t="n">
+      <c r="B602">
         <v>1388684.912111622</v>
       </c>
     </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
+    <row r="603" spans="1:2">
+      <c r="A603" s="1">
         <v>601</v>
       </c>
-      <c r="B603" t="n">
+      <c r="B603">
         <v>1315901.29365436</v>
       </c>
     </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
+    <row r="604" spans="1:2">
+      <c r="A604" s="1">
         <v>602</v>
       </c>
-      <c r="B604" t="n">
+      <c r="B604">
         <v>1262312.469443068</v>
       </c>
     </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
+    <row r="605" spans="1:2">
+      <c r="A605" s="1">
         <v>603</v>
       </c>
-      <c r="B605" t="n">
+      <c r="B605">
         <v>1276750.794260186</v>
       </c>
     </row>
-    <row r="606">
-      <c r="A606" s="1" t="n">
+    <row r="606" spans="1:2">
+      <c r="A606" s="1">
         <v>604</v>
       </c>
-      <c r="B606" t="n">
+      <c r="B606">
         <v>1186565.305440027</v>
       </c>
     </row>
-    <row r="607">
-      <c r="A607" s="1" t="n">
+    <row r="607" spans="1:2">
+      <c r="A607" s="1">
         <v>605</v>
       </c>
-      <c r="B607" t="n">
+      <c r="B607">
         <v>1288643.973658691</v>
       </c>
     </row>
-    <row r="608">
-      <c r="A608" s="1" t="n">
+    <row r="608" spans="1:2">
+      <c r="A608" s="1">
         <v>606</v>
       </c>
-      <c r="B608" t="n">
+      <c r="B608">
         <v>1476796.794871447</v>
       </c>
     </row>
-    <row r="609">
-      <c r="A609" s="1" t="n">
+    <row r="609" spans="1:2">
+      <c r="A609" s="1">
         <v>607</v>
       </c>
-      <c r="B609" t="n">
+      <c r="B609">
         <v>1175700.342571571</v>
       </c>
     </row>
-    <row r="610">
-      <c r="A610" s="1" t="n">
+    <row r="610" spans="1:2">
+      <c r="A610" s="1">
         <v>608</v>
       </c>
-      <c r="B610" t="n">
+      <c r="B610">
         <v>1270516.870484437</v>
       </c>
     </row>
-    <row r="611">
-      <c r="A611" s="1" t="n">
+    <row r="611" spans="1:2">
+      <c r="A611" s="1">
         <v>609</v>
       </c>
-      <c r="B611" t="n">
+      <c r="B611">
         <v>1303730.395511403</v>
       </c>
     </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
+    <row r="612" spans="1:2">
+      <c r="A612" s="1">
         <v>610</v>
       </c>
-      <c r="B612" t="n">
+      <c r="B612">
         <v>1288742.511928776</v>
       </c>
     </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
+    <row r="613" spans="1:2">
+      <c r="A613" s="1">
         <v>611</v>
       </c>
-      <c r="B613" t="n">
+      <c r="B613">
         <v>1318614.394152647</v>
       </c>
     </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
+    <row r="614" spans="1:2">
+      <c r="A614" s="1">
         <v>612</v>
       </c>
-      <c r="B614" t="n">
+      <c r="B614">
         <v>1400400.392803838</v>
       </c>
     </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
+    <row r="615" spans="1:2">
+      <c r="A615" s="1">
         <v>613</v>
       </c>
-      <c r="B615" t="n">
+      <c r="B615">
         <v>1161682.671746701</v>
       </c>
     </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
+    <row r="616" spans="1:2">
+      <c r="A616" s="1">
         <v>614</v>
       </c>
-      <c r="B616" t="n">
+      <c r="B616">
         <v>1383148.141076808</v>
       </c>
     </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
+    <row r="617" spans="1:2">
+      <c r="A617" s="1">
         <v>615</v>
       </c>
-      <c r="B617" t="n">
+      <c r="B617">
         <v>1288865.047479254</v>
       </c>
     </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
+    <row r="618" spans="1:2">
+      <c r="A618" s="1">
         <v>616</v>
       </c>
-      <c r="B618" t="n">
+      <c r="B618">
         <v>1086239.703382601</v>
       </c>
     </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
+    <row r="619" spans="1:2">
+      <c r="A619" s="1">
         <v>617</v>
       </c>
-      <c r="B619" t="n">
+      <c r="B619">
         <v>1082680.971303903</v>
       </c>
     </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
+    <row r="620" spans="1:2">
+      <c r="A620" s="1">
         <v>618</v>
       </c>
-      <c r="B620" t="n">
+      <c r="B620">
         <v>1130030.850447312</v>
       </c>
     </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
+    <row r="621" spans="1:2">
+      <c r="A621" s="1">
         <v>619</v>
       </c>
-      <c r="B621" t="n">
+      <c r="B621">
         <v>1121888.680504126</v>
       </c>
     </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
+    <row r="622" spans="1:2">
+      <c r="A622" s="1">
         <v>620</v>
       </c>
-      <c r="B622" t="n">
+      <c r="B622">
         <v>1074124.678578356</v>
       </c>
     </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
+    <row r="623" spans="1:2">
+      <c r="A623" s="1">
         <v>621</v>
       </c>
-      <c r="B623" t="n">
+      <c r="B623">
         <v>1101071.019130474</v>
       </c>
     </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
+    <row r="624" spans="1:2">
+      <c r="A624" s="1">
         <v>622</v>
       </c>
-      <c r="B624" t="n">
+      <c r="B624">
         <v>1089538.744178573</v>
       </c>
     </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
+    <row r="625" spans="1:2">
+      <c r="A625" s="1">
         <v>623</v>
       </c>
-      <c r="B625" t="n">
+      <c r="B625">
         <v>1127100.623798209</v>
       </c>
     </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
+    <row r="626" spans="1:2">
+      <c r="A626" s="1">
         <v>624</v>
       </c>
-      <c r="B626" t="n">
+      <c r="B626">
         <v>1260546.725497282</v>
       </c>
     </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
+    <row r="627" spans="1:2">
+      <c r="A627" s="1">
         <v>625</v>
       </c>
-      <c r="B627" t="n">
+      <c r="B627">
         <v>1095627.673392361</v>
       </c>
     </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
+    <row r="628" spans="1:2">
+      <c r="A628" s="1">
         <v>626</v>
       </c>
-      <c r="B628" t="n">
+      <c r="B628">
         <v>1088196.457899271</v>
       </c>
     </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
+    <row r="629" spans="1:2">
+      <c r="A629" s="1">
         <v>627</v>
       </c>
-      <c r="B629" t="n">
+      <c r="B629">
         <v>1043567.863770239</v>
       </c>
     </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
+    <row r="630" spans="1:2">
+      <c r="A630" s="1">
         <v>628</v>
       </c>
-      <c r="B630" t="n">
+      <c r="B630">
         <v>1086479.922114938</v>
       </c>
     </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
+    <row r="631" spans="1:2">
+      <c r="A631" s="1">
         <v>629</v>
       </c>
-      <c r="B631" t="n">
+      <c r="B631">
         <v>903744.8290563155</v>
       </c>
     </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
+    <row r="632" spans="1:2">
+      <c r="A632" s="1">
         <v>630</v>
       </c>
-      <c r="B632" t="n">
+      <c r="B632">
         <v>1025670.031788337</v>
       </c>
     </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
+    <row r="633" spans="1:2">
+      <c r="A633" s="1">
         <v>631</v>
       </c>
-      <c r="B633" t="n">
+      <c r="B633">
         <v>1137618.135473432</v>
       </c>
     </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
+    <row r="634" spans="1:2">
+      <c r="A634" s="1">
         <v>632</v>
       </c>
-      <c r="B634" t="n">
+      <c r="B634">
         <v>1098194.624669954</v>
       </c>
     </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
+    <row r="635" spans="1:2">
+      <c r="A635" s="1">
         <v>633</v>
       </c>
-      <c r="B635" t="n">
+      <c r="B635">
         <v>1086458.711686756</v>
       </c>
     </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
+    <row r="636" spans="1:2">
+      <c r="A636" s="1">
         <v>634</v>
       </c>
-      <c r="B636" t="n">
+      <c r="B636">
         <v>1105476.499090789</v>
       </c>
     </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
+    <row r="637" spans="1:2">
+      <c r="A637" s="1">
         <v>635</v>
       </c>
-      <c r="B637" t="n">
+      <c r="B637">
         <v>1368241.579356359</v>
       </c>
     </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
+    <row r="638" spans="1:2">
+      <c r="A638" s="1">
         <v>636</v>
       </c>
-      <c r="B638" t="n">
+      <c r="B638">
         <v>1033333.321602695</v>
       </c>
     </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
+    <row r="639" spans="1:2">
+      <c r="A639" s="1">
         <v>637</v>
       </c>
-      <c r="B639" t="n">
+      <c r="B639">
         <v>1291146.949650944</v>
       </c>
     </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
+    <row r="640" spans="1:2">
+      <c r="A640" s="1">
         <v>638</v>
       </c>
-      <c r="B640" t="n">
+      <c r="B640">
         <v>1681909.802633321</v>
       </c>
     </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
+    <row r="641" spans="1:2">
+      <c r="A641" s="1">
         <v>639</v>
       </c>
-      <c r="B641" t="n">
+      <c r="B641">
         <v>1629060.039055177</v>
       </c>
     </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
+    <row r="642" spans="1:2">
+      <c r="A642" s="1">
         <v>640</v>
       </c>
-      <c r="B642" t="n">
+      <c r="B642">
         <v>1655449.071274408</v>
       </c>
     </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
+    <row r="643" spans="1:2">
+      <c r="A643" s="1">
         <v>641</v>
       </c>
-      <c r="B643" t="n">
+      <c r="B643">
         <v>1684174.251176536</v>
       </c>
     </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
+    <row r="644" spans="1:2">
+      <c r="A644" s="1">
         <v>642</v>
       </c>
-      <c r="B644" t="n">
+      <c r="B644">
         <v>1635749.546635574</v>
       </c>
     </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
+    <row r="645" spans="1:2">
+      <c r="A645" s="1">
         <v>643</v>
       </c>
-      <c r="B645" t="n">
+      <c r="B645">
         <v>1668319.021005609</v>
       </c>
     </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
+    <row r="646" spans="1:2">
+      <c r="A646" s="1">
         <v>644</v>
       </c>
-      <c r="B646" t="n">
+      <c r="B646">
         <v>1636956.14433519</v>
       </c>
     </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
+    <row r="647" spans="1:2">
+      <c r="A647" s="1">
         <v>645</v>
       </c>
-      <c r="B647" t="n">
+      <c r="B647">
         <v>1449910.932747274</v>
       </c>
     </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
+    <row r="648" spans="1:2">
+      <c r="A648" s="1">
         <v>646</v>
       </c>
-      <c r="B648" t="n">
+      <c r="B648">
         <v>1660980.840906878</v>
       </c>
     </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
+    <row r="649" spans="1:2">
+      <c r="A649" s="1">
         <v>647</v>
       </c>
-      <c r="B649" t="n">
+      <c r="B649">
         <v>1673811.508442133</v>
       </c>
     </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
+    <row r="650" spans="1:2">
+      <c r="A650" s="1">
         <v>648</v>
       </c>
-      <c r="B650" t="n">
+      <c r="B650">
         <v>1742440.326325499</v>
       </c>
     </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
+    <row r="651" spans="1:2">
+      <c r="A651" s="1">
         <v>649</v>
       </c>
-      <c r="B651" t="n">
+      <c r="B651">
         <v>1676802.347920503</v>
       </c>
     </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
+    <row r="652" spans="1:2">
+      <c r="A652" s="1">
         <v>650</v>
       </c>
-      <c r="B652" t="n">
+      <c r="B652">
         <v>1932090.875171676</v>
       </c>
     </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
+    <row r="653" spans="1:2">
+      <c r="A653" s="1">
         <v>651</v>
       </c>
-      <c r="B653" t="n">
+      <c r="B653">
         <v>1765071.743939012</v>
       </c>
     </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
+    <row r="654" spans="1:2">
+      <c r="A654" s="1">
         <v>652</v>
       </c>
-      <c r="B654" t="n">
+      <c r="B654">
         <v>1606355.896684763</v>
       </c>
     </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
+    <row r="655" spans="1:2">
+      <c r="A655" s="1">
         <v>653</v>
       </c>
-      <c r="B655" t="n">
+      <c r="B655">
         <v>1656914.069424991</v>
       </c>
     </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
+    <row r="656" spans="1:2">
+      <c r="A656" s="1">
         <v>654</v>
       </c>
-      <c r="B656" t="n">
+      <c r="B656">
         <v>1676660.719807917</v>
       </c>
     </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
+    <row r="657" spans="1:2">
+      <c r="A657" s="1">
         <v>655</v>
       </c>
-      <c r="B657" t="n">
+      <c r="B657">
         <v>1661943.898146933</v>
       </c>
     </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
+    <row r="658" spans="1:2">
+      <c r="A658" s="1">
         <v>656</v>
       </c>
-      <c r="B658" t="n">
+      <c r="B658">
         <v>1331319.210545807</v>
       </c>
     </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
+    <row r="659" spans="1:2">
+      <c r="A659" s="1">
         <v>657</v>
       </c>
-      <c r="B659" t="n">
+      <c r="B659">
         <v>1719406.980300071</v>
       </c>
     </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
+    <row r="660" spans="1:2">
+      <c r="A660" s="1">
         <v>658</v>
       </c>
-      <c r="B660" t="n">
+      <c r="B660">
         <v>1425577.063083202</v>
       </c>
     </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
+    <row r="661" spans="1:2">
+      <c r="A661" s="1">
         <v>659</v>
       </c>
-      <c r="B661" t="n">
+      <c r="B661">
         <v>1676946.896336243</v>
       </c>
     </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
+    <row r="662" spans="1:2">
+      <c r="A662" s="1">
         <v>660</v>
       </c>
-      <c r="B662" t="n">
+      <c r="B662">
         <v>2228827.075590077</v>
       </c>
     </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
+    <row r="663" spans="1:2">
+      <c r="A663" s="1">
         <v>661</v>
       </c>
-      <c r="B663" t="n">
+      <c r="B663">
         <v>2223989.300706496</v>
       </c>
     </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
+    <row r="664" spans="1:2">
+      <c r="A664" s="1">
         <v>662</v>
       </c>
-      <c r="B664" t="n">
+      <c r="B664">
         <v>2196038.347227597</v>
       </c>
     </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
+    <row r="665" spans="1:2">
+      <c r="A665" s="1">
         <v>663</v>
       </c>
-      <c r="B665" t="n">
+      <c r="B665">
         <v>2075351.869409235</v>
       </c>
     </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
+    <row r="666" spans="1:2">
+      <c r="A666" s="1">
         <v>664</v>
       </c>
-      <c r="B666" t="n">
+      <c r="B666">
         <v>2196570.80060508</v>
       </c>
     </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
+    <row r="667" spans="1:2">
+      <c r="A667" s="1">
         <v>665</v>
       </c>
-      <c r="B667" t="n">
+      <c r="B667">
         <v>2255634.050217403</v>
       </c>
     </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
+    <row r="668" spans="1:2">
+      <c r="A668" s="1">
         <v>666</v>
       </c>
-      <c r="B668" t="n">
+      <c r="B668">
         <v>2212534.695744285</v>
       </c>
     </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
+    <row r="669" spans="1:2">
+      <c r="A669" s="1">
         <v>667</v>
       </c>
-      <c r="B669" t="n">
+      <c r="B669">
         <v>2284678.357914909</v>
       </c>
     </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
+    <row r="670" spans="1:2">
+      <c r="A670" s="1">
         <v>668</v>
       </c>
-      <c r="B670" t="n">
+      <c r="B670">
         <v>2195530.464318134</v>
       </c>
     </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
+    <row r="671" spans="1:2">
+      <c r="A671" s="1">
         <v>669</v>
       </c>
-      <c r="B671" t="n">
+      <c r="B671">
         <v>2200244.410272962</v>
       </c>
     </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
+    <row r="672" spans="1:2">
+      <c r="A672" s="1">
         <v>670</v>
       </c>
-      <c r="B672" t="n">
+      <c r="B672">
         <v>2231496.503009649</v>
       </c>
     </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
+    <row r="673" spans="1:2">
+      <c r="A673" s="1">
         <v>671</v>
       </c>
-      <c r="B673" t="n">
+      <c r="B673">
         <v>2108169.15732012</v>
       </c>
     </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
+    <row r="674" spans="1:2">
+      <c r="A674" s="1">
         <v>672</v>
       </c>
-      <c r="B674" t="n">
+      <c r="B674">
         <v>2229653.851920427</v>
       </c>
     </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
+    <row r="675" spans="1:2">
+      <c r="A675" s="1">
         <v>673</v>
       </c>
-      <c r="B675" t="n">
+      <c r="B675">
         <v>1941870.358020753</v>
       </c>
     </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
+    <row r="676" spans="1:2">
+      <c r="A676" s="1">
         <v>674</v>
       </c>
-      <c r="B676" t="n">
+      <c r="B676">
         <v>2142627.035576315</v>
       </c>
     </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
+    <row r="677" spans="1:2">
+      <c r="A677" s="1">
         <v>675</v>
       </c>
-      <c r="B677" t="n">
+      <c r="B677">
         <v>2205077.877876128</v>
       </c>
     </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
+    <row r="678" spans="1:2">
+      <c r="A678" s="1">
         <v>676</v>
       </c>
-      <c r="B678" t="n">
+      <c r="B678">
         <v>2172753.033148927</v>
       </c>
     </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
+    <row r="679" spans="1:2">
+      <c r="A679" s="1">
         <v>677</v>
       </c>
-      <c r="B679" t="n">
+      <c r="B679">
         <v>2227957.105919302</v>
       </c>
     </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
+    <row r="680" spans="1:2">
+      <c r="A680" s="1">
         <v>678</v>
       </c>
-      <c r="B680" t="n">
+      <c r="B680">
         <v>2191322.849814719</v>
       </c>
     </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
+    <row r="681" spans="1:2">
+      <c r="A681" s="1">
         <v>679</v>
       </c>
-      <c r="B681" t="n">
+      <c r="B681">
         <v>2064406.729357341</v>
       </c>
     </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
+    <row r="682" spans="1:2">
+      <c r="A682" s="1">
         <v>680</v>
       </c>
-      <c r="B682" t="n">
+      <c r="B682">
         <v>2184826.037631567</v>
       </c>
     </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
+    <row r="683" spans="1:2">
+      <c r="A683" s="1">
         <v>681</v>
       </c>
-      <c r="B683" t="n">
+      <c r="B683">
         <v>2130745.732178498</v>
       </c>
     </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
+    <row r="684" spans="1:2">
+      <c r="A684" s="1">
         <v>682</v>
       </c>
-      <c r="B684" t="n">
+      <c r="B684">
         <v>1260932.429010132</v>
       </c>
     </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
+    <row r="685" spans="1:2">
+      <c r="A685" s="1">
         <v>683</v>
       </c>
-      <c r="B685" t="n">
+      <c r="B685">
         <v>1278208.904197712</v>
       </c>
     </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
+    <row r="686" spans="1:2">
+      <c r="A686" s="1">
         <v>684</v>
       </c>
-      <c r="B686" t="n">
+      <c r="B686">
         <v>1352972.05528703</v>
       </c>
     </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
+    <row r="687" spans="1:2">
+      <c r="A687" s="1">
         <v>685</v>
       </c>
-      <c r="B687" t="n">
+      <c r="B687">
         <v>1277358.551565326</v>
       </c>
     </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
+    <row r="688" spans="1:2">
+      <c r="A688" s="1">
         <v>686</v>
       </c>
-      <c r="B688" t="n">
+      <c r="B688">
         <v>1230360.513472734</v>
       </c>
     </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
+    <row r="689" spans="1:2">
+      <c r="A689" s="1">
         <v>687</v>
       </c>
-      <c r="B689" t="n">
+      <c r="B689">
         <v>1267736.901042613</v>
       </c>
     </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
+    <row r="690" spans="1:2">
+      <c r="A690" s="1">
         <v>688</v>
       </c>
-      <c r="B690" t="n">
+      <c r="B690">
         <v>1199999.213694294</v>
       </c>
     </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
+    <row r="691" spans="1:2">
+      <c r="A691" s="1">
         <v>689</v>
       </c>
-      <c r="B691" t="n">
+      <c r="B691">
         <v>1284027.346921587</v>
       </c>
     </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
+    <row r="692" spans="1:2">
+      <c r="A692" s="1">
         <v>690</v>
       </c>
-      <c r="B692" t="n">
+      <c r="B692">
         <v>1275100.224823089</v>
       </c>
     </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
+    <row r="693" spans="1:2">
+      <c r="A693" s="1">
         <v>691</v>
       </c>
-      <c r="B693" t="n">
+      <c r="B693">
         <v>1254597.104199068</v>
       </c>
     </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
+    <row r="694" spans="1:2">
+      <c r="A694" s="1">
         <v>692</v>
       </c>
-      <c r="B694" t="n">
+      <c r="B694">
         <v>1344029.016602933</v>
       </c>
     </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
+    <row r="695" spans="1:2">
+      <c r="A695" s="1">
         <v>693</v>
       </c>
-      <c r="B695" t="n">
+      <c r="B695">
         <v>1256679.818126792</v>
       </c>
     </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
+    <row r="696" spans="1:2">
+      <c r="A696" s="1">
         <v>694</v>
       </c>
-      <c r="B696" t="n">
+      <c r="B696">
         <v>1477410.890169001</v>
       </c>
     </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
+    <row r="697" spans="1:2">
+      <c r="A697" s="1">
         <v>695</v>
       </c>
-      <c r="B697" t="n">
+      <c r="B697">
         <v>1325699.727713147</v>
       </c>
     </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
+    <row r="698" spans="1:2">
+      <c r="A698" s="1">
         <v>696</v>
       </c>
-      <c r="B698" t="n">
+      <c r="B698">
         <v>1275015.341586284</v>
       </c>
     </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
+    <row r="699" spans="1:2">
+      <c r="A699" s="1">
         <v>697</v>
       </c>
-      <c r="B699" t="n">
+      <c r="B699">
         <v>1299210.995410775</v>
       </c>
     </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
+    <row r="700" spans="1:2">
+      <c r="A700" s="1">
         <v>698</v>
       </c>
-      <c r="B700" t="n">
+      <c r="B700">
         <v>1257428.216128716</v>
       </c>
     </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
+    <row r="701" spans="1:2">
+      <c r="A701" s="1">
         <v>699</v>
       </c>
-      <c r="B701" t="n">
+      <c r="B701">
         <v>1285216.643517635</v>
       </c>
     </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
+    <row r="702" spans="1:2">
+      <c r="A702" s="1">
         <v>700</v>
       </c>
-      <c r="B702" t="n">
+      <c r="B702">
         <v>1357121.367216201</v>
       </c>
     </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
+    <row r="703" spans="1:2">
+      <c r="A703" s="1">
         <v>701</v>
       </c>
-      <c r="B703" t="n">
+      <c r="B703">
         <v>1299226.400319817</v>
       </c>
     </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
+    <row r="704" spans="1:2">
+      <c r="A704" s="1">
         <v>702</v>
       </c>
-      <c r="B704" t="n">
+      <c r="B704">
         <v>1344986.981790164</v>
       </c>
     </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
+    <row r="705" spans="1:2">
+      <c r="A705" s="1">
         <v>703</v>
       </c>
-      <c r="B705" t="n">
+      <c r="B705">
         <v>1257006.662257111</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>